--- a/existing_data.xlsx
+++ b/existing_data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="PlayerDetails" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,10 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="9">
-  <si>
-    <t xml:space="preserve">Testt</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="9">
   <si>
     <t xml:space="preserve">Email</t>
   </si>
@@ -48,6 +45,9 @@
   </si>
   <si>
     <t xml:space="preserve">max6927</t>
+  </si>
+  <si>
+    <t>yes</t>
   </si>
 </sst>
 </file>
@@ -136,15 +136,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -165,17 +165,332 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D15" activeCellId="0" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" t="s">
+        <v>8</v>
+      </c>
+      <c r="J7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" t="s">
+        <v>8</v>
+      </c>
+      <c r="I8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" t="s">
+        <v>8</v>
+      </c>
+      <c r="I9" t="s">
+        <v>8</v>
+      </c>
+      <c r="J9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H10" t="s">
+        <v>8</v>
+      </c>
+      <c r="I10" t="s">
+        <v>8</v>
+      </c>
+      <c r="J10" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -196,66 +511,66 @@
   </sheetPr>
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="3" t="s">
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="C3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+      <c r="C4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="D4" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
